--- a/demand_profile_year_water.xlsx
+++ b/demand_profile_year_water.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/climate-change/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghesi\Documents\GitHub\climate-change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC78A53-C011-4C48-BF01-5CDB6D26C310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B083E44-E597-446F-9FBF-46EABAAF0497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3DE24F4D-6416-5645-A5F0-6137FC738CB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DE24F4D-6416-5645-A5F0-6137FC738CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -182,8 +182,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -254,8 +254,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -575,20 +575,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AF3B81-9575-A245-AE6B-F8F2DF3F8335}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1">
-        <f>C3/$A$14</f>
+        <f t="shared" ref="B1:B12" si="0">C3/$A$14</f>
         <v>7.9601990049751242E-2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -607,9 +607,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <f>C4/$A$14</f>
+        <f t="shared" si="0"/>
         <v>8.12603648424544E-2</v>
       </c>
       <c r="D2" t="s">
@@ -631,9 +631,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f>C5/$A$14</f>
+        <f t="shared" si="0"/>
         <v>7.9601990049751242E-2</v>
       </c>
       <c r="C3">
@@ -646,9 +646,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
-        <f>C6/$A$14</f>
+        <f t="shared" si="0"/>
         <v>8.2918739635157543E-2</v>
       </c>
       <c r="C4">
@@ -661,9 +661,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f>C7/$A$14</f>
+        <f t="shared" si="0"/>
         <v>8.2918739635157543E-2</v>
       </c>
       <c r="C5">
@@ -681,9 +681,9 @@
         <v>0.83870967741935487</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f>C8/$A$14</f>
+        <f t="shared" si="0"/>
         <v>8.6235489220563843E-2</v>
       </c>
       <c r="C6">
@@ -701,9 +701,9 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f>C9/$A$14</f>
+        <f t="shared" si="0"/>
         <v>9.1210613598673301E-2</v>
       </c>
       <c r="C7">
@@ -716,9 +716,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>C10/$A$14</f>
+        <f t="shared" si="0"/>
         <v>8.7893864013267001E-2</v>
       </c>
       <c r="C8">
@@ -731,9 +731,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f>C11/$A$14</f>
+        <f t="shared" si="0"/>
         <v>8.45771144278607E-2</v>
       </c>
       <c r="C9">
@@ -746,9 +746,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>C12/$A$14</f>
+        <f t="shared" si="0"/>
         <v>8.2918739635157543E-2</v>
       </c>
       <c r="C10">
@@ -761,9 +761,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f>C13/$A$14</f>
+        <f t="shared" si="0"/>
         <v>8.12603648424544E-2</v>
       </c>
       <c r="C11">
@@ -776,9 +776,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f>C14/$A$14</f>
+        <f t="shared" si="0"/>
         <v>7.9601990049751242E-2</v>
       </c>
       <c r="C12">
@@ -796,7 +796,7 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>24.5</v>
       </c>
@@ -812,7 +812,7 @@
         <v>0.26666666666666672</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>SUM(C3:C14)</f>
         <v>301.5</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>301.5</v>
       </c>
@@ -855,39 +855,35 @@
         <v>30.533333333333335</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="3">
-        <f>E15/$C$15</f>
-        <v>0.17370138554539133</v>
+        <f>0.19191102</f>
+        <v>0.19191101999999999</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ref="F16:H16" si="0">F15/$C$15</f>
-        <v>9.7166497262790003E-2</v>
+        <v>0.20458313</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.51477380124467265</v>
+        <v>0.17765183000000001</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.11308689527274024</v>
+        <v>0.22002651000000001</v>
       </c>
       <c r="I16" s="3">
-        <f>I15/$C$15</f>
-        <v>0.10127142067440575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.20582752000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E19">
         <f>SUM(C21:C23)</f>
         <v>0.175342465</v>
@@ -909,7 +905,7 @@
         <v>0.10958904100000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -923,7 +919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -939,10 +935,13 @@
       </c>
       <c r="E21" s="6">
         <f>D21*$E$16</f>
-        <v>4.3425346138687655E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.7977754726376866E-2</v>
+      </c>
+      <c r="F21">
+        <v>4.7977754726376866E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -958,10 +957,13 @@
       </c>
       <c r="E22" s="6">
         <f>D22*$E$16</f>
-        <v>0.10856336633735986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.1199443879104347</v>
+      </c>
+      <c r="F22">
+        <v>0.1199443879104347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -976,11 +978,14 @@
         <v>0.12499999928710938</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" ref="E22:E24" si="1">D23*$E$16</f>
-        <v>2.1712673069343828E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E23:F23" si="1">D23*$E$16</f>
+        <v>2.3988877363188433E-2</v>
+      </c>
+      <c r="F23">
+        <v>2.3988877363188433E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -996,10 +1001,13 @@
       </c>
       <c r="E24" s="6">
         <f>D24*$F$16</f>
-        <v>2.4291624315697501E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.11457825E-2</v>
+      </c>
+      <c r="F24">
+        <v>5.11457825E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1014,11 +1022,14 @@
         <v>0.66666666337837832</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" ref="E25:E27" si="3">D25*$F$16</f>
-        <v>6.4777664522348538E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E25:F26" si="3">D25*$F$16</f>
+        <v>0.13638875266060502</v>
+      </c>
+      <c r="F25">
+        <v>0.13638875266060502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1034,10 +1045,13 @@
       </c>
       <c r="E26" s="6">
         <f t="shared" si="3"/>
-        <v>8.0972084247439534E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.704859483939497E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.704859483939497E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1053,10 +1067,13 @@
       </c>
       <c r="E27" s="6">
         <f>D27*$G$16</f>
-        <v>0.10724454213987653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.7010797990486025E-2</v>
+      </c>
+      <c r="F27">
+        <v>3.7010797990486025E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1071,11 +1088,14 @@
         <v>0.66666666600182156</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" ref="E28:E29" si="5">D28*$G$16</f>
-        <v>0.34318253382087027</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E28:F29" si="5">D28*$G$16</f>
+        <v>0.11843455321522239</v>
+      </c>
+      <c r="F28">
+        <v>0.11843455321522239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1091,10 +1111,13 @@
       </c>
       <c r="E29" s="6">
         <f t="shared" si="5"/>
-        <v>6.4346725283925918E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.2206478794291613E-2</v>
+      </c>
+      <c r="F29">
+        <v>2.2206478794291613E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1110,10 +1133,13 @@
       </c>
       <c r="E30" s="6">
         <f>D30*$H$16</f>
-        <v>2.8271724069872356E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.5006627989693149E-2</v>
+      </c>
+      <c r="F30">
+        <v>5.5006627989693149E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1128,11 +1154,14 @@
         <v>0.62499999666158534</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" ref="E31:E32" si="7">D31*$H$16</f>
-        <v>7.0679309167931706E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E31:F32" si="7">D31*$H$16</f>
+        <v>0.13751656801546028</v>
+      </c>
+      <c r="F31">
+        <v>0.13751656801546028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1148,10 +1177,13 @@
       </c>
       <c r="E32" s="6">
         <f t="shared" si="7"/>
-        <v>1.4135862034936178E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.7503313994846575E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.7503313994846575E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1167,10 +1199,13 @@
       </c>
       <c r="E33" s="6">
         <f>D33*$I$16</f>
-        <v>2.5317854937576007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.1456879530455968E-2</v>
+      </c>
+      <c r="F33">
+        <v>5.1456879530455968E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1185,11 +1220,14 @@
         <v>0.62500000342187501</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34:E35" si="9">D34*$I$16</f>
-        <v>6.3294638268041742E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E34:F35" si="9">D34*$I$16</f>
+        <v>0.12864220070431606</v>
+      </c>
+      <c r="F34">
+        <v>0.12864220070431606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1205,21 +1243,25 @@
       </c>
       <c r="E35" s="6">
         <f t="shared" si="9"/>
-        <v>1.2658927468788004E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.5728439765227984E-2</v>
+      </c>
+      <c r="F35">
+        <v>2.5728439765227984E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f>SUM(B21:B35)</f>
         <v>1.4044943999999998E-2</v>
       </c>
       <c r="E36" s="5">
         <f>SUM(E21:E35)</f>
-        <v>1</v>
+        <v>1.0000000100000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>